--- a/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-topk-desired-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,43 +43,52 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>panic</t>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>cut</t>
@@ -91,91 +100,97 @@
     <t>lower</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>avoid</t>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>like</t>
@@ -184,33 +199,33 @@
     <t>well</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
@@ -223,7 +238,25 @@
     <t>sure</t>
   </si>
   <si>
-    <t>need</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>corona</t>
@@ -584,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,37 +686,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9736842105263158</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D3">
-        <v>37</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -695,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -703,38 +736,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9117647058823529</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L4">
         <v>31</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>31</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4">
-        <v>0.95</v>
-      </c>
-      <c r="L4">
-        <v>114</v>
-      </c>
-      <c r="M4">
-        <v>114</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -745,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -753,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.863013698630137</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -771,19 +804,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -795,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.863013698630137</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C6">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -821,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -845,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -871,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -895,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,7 +936,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C8">
         <v>32</v>
@@ -921,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.9007832898172323</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M8">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -945,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7286821705426356</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C9">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>376</v>
+        <v>31</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -971,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -995,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.711864406779661</v>
+        <v>0.7325581395348837</v>
       </c>
       <c r="C10">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="D10">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1021,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.8936170212765957</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1045,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.725</v>
       </c>
       <c r="C11">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1071,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.8867924528301887</v>
+        <v>0.8875</v>
       </c>
       <c r="L11">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M11">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1095,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1103,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6878306878306878</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C12">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1121,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.8828125</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1145,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1153,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6756756756756757</v>
+        <v>0.708994708994709</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1171,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.88125</v>
+        <v>0.8828125</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="M13">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1195,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1203,7 +1236,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6410256410256411</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C14">
         <v>25</v>
@@ -1221,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1245,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1253,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6410256410256411</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1271,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L15">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="M15">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1295,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1303,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6174496644295302</v>
+        <v>0.6442953020134228</v>
       </c>
       <c r="C16">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1321,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.8448275862068966</v>
+      </c>
+      <c r="L16">
         <v>49</v>
       </c>
-      <c r="K16">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L16">
-        <v>31</v>
-      </c>
       <c r="M16">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1345,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1353,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1371,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1395,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1403,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5466666666666666</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1421,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1445,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1453,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5178571428571429</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C19">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1471,19 +1504,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.8055555555555556</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1495,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1503,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1521,19 +1554,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1545,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1553,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4545454545454545</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1571,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.7764705882352941</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1595,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1603,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4155844155844156</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1621,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.7446808510638298</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L22">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1645,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1653,13 +1686,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.375</v>
+        <v>0.4125</v>
       </c>
       <c r="C23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1671,31 +1704,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23">
-        <v>0.7372013651877133</v>
+        <v>0.78</v>
       </c>
       <c r="L23">
-        <v>216</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="N23">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1703,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3611111111111111</v>
+        <v>0.4087301587301587</v>
       </c>
       <c r="C24">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D24">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1721,19 +1754,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K24">
-        <v>0.7078651685393258</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1745,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1753,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2788203753351207</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1771,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>269</v>
+        <v>46</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K25">
-        <v>0.7076923076923077</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="L25">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="M25">
-        <v>46</v>
+        <v>256</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1795,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1803,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1433333333333333</v>
+        <v>0.3163538873994638</v>
       </c>
       <c r="C26">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="D26">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1821,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26">
-        <v>0.7071129707112971</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L26">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="M26">
-        <v>169</v>
+        <v>70</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1845,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1853,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.08532423208191127</v>
+        <v>0.18</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1871,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.7415730337078652</v>
       </c>
       <c r="L27">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1895,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1903,37 +1936,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01844063409899709</v>
+        <v>0.03336572724327826</v>
       </c>
       <c r="C28">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="D28">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E28">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F28">
-        <v>0.78</v>
+        <v>0.84</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3034</v>
+        <v>2984</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28">
-        <v>0.7</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L28">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>174</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1945,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1953,63 +1986,87 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.014058106841612</v>
+        <v>0.0328719723183391</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E29">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="F29">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>2104</v>
+        <v>1118</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K29">
-        <v>0.6862745098039216</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L29">
+        <v>37</v>
+      </c>
+      <c r="M29">
+        <v>37</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M29">
-        <v>35</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="B30">
+        <v>0.02650260293421675</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>86</v>
+      </c>
+      <c r="E30">
+        <v>0.35</v>
+      </c>
+      <c r="F30">
+        <v>0.65</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2057</v>
+      </c>
       <c r="J30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K30">
-        <v>0.6571428571428571</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="M30">
-        <v>46</v>
+        <v>214</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2021,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>24</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K31">
-        <v>0.6</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2047,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K32">
-        <v>0.5384615384615384</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2073,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>0.5342465753424658</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L33">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M33">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2099,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.5081967213114754</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2125,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.453125</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L35">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M35">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2151,59 +2208,345 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.08710801393728224</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N36">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>262</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K37">
-        <v>0.02036340852130326</v>
+        <v>0.5205479452054794</v>
       </c>
       <c r="L37">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="M37">
+        <v>38</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K38">
+        <v>0.4754098360655737</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>29</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K39">
+        <v>0.46875</v>
+      </c>
+      <c r="L39">
+        <v>30</v>
+      </c>
+      <c r="M39">
+        <v>30</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="N37">
-        <v>0.88</v>
-      </c>
-      <c r="O37">
-        <v>0.12</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>3127</v>
+      <c r="K40">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>25</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K41">
+        <v>0.3472222222222222</v>
+      </c>
+      <c r="L41">
+        <v>25</v>
+      </c>
+      <c r="M41">
+        <v>25</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K42">
+        <v>0.2962962962962963</v>
+      </c>
+      <c r="L42">
+        <v>32</v>
+      </c>
+      <c r="M42">
+        <v>33</v>
+      </c>
+      <c r="N42">
+        <v>0.97</v>
+      </c>
+      <c r="O42">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K43">
+        <v>0.1413043478260869</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>27</v>
+      </c>
+      <c r="N43">
+        <v>0.96</v>
+      </c>
+      <c r="O43">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K44">
+        <v>0.09771986970684039</v>
+      </c>
+      <c r="L44">
+        <v>30</v>
+      </c>
+      <c r="M44">
+        <v>31</v>
+      </c>
+      <c r="N44">
+        <v>0.97</v>
+      </c>
+      <c r="O44">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K45">
+        <v>0.08022922636103152</v>
+      </c>
+      <c r="L45">
+        <v>28</v>
+      </c>
+      <c r="M45">
+        <v>28</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K46">
+        <v>0.06506024096385542</v>
+      </c>
+      <c r="L46">
+        <v>27</v>
+      </c>
+      <c r="M46">
+        <v>28</v>
+      </c>
+      <c r="N46">
+        <v>0.96</v>
+      </c>
+      <c r="O46">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K47">
+        <v>0.02768166089965398</v>
+      </c>
+      <c r="L47">
+        <v>88</v>
+      </c>
+      <c r="M47">
+        <v>110</v>
+      </c>
+      <c r="N47">
+        <v>0.8</v>
+      </c>
+      <c r="O47">
+        <v>0.2</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>0.01437470052707235</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>86</v>
+      </c>
+      <c r="N48">
+        <v>0.35</v>
+      </c>
+      <c r="O48">
+        <v>0.65</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2057</v>
       </c>
     </row>
   </sheetData>
